--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -1,48 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\PycharmProjects\pythonProject\xlsx_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FFA51-B494-45CD-9899-CC2245B9C5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Temperature(°C)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,26 +57,104 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -364,53 +442,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="2" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col width="21.39" customWidth="1" style="2" min="1" max="2"/>
+    <col width="12.78" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" ht="39.55" customHeight="1" s="3">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Temperature(°C)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="15" customHeight="1" s="3"/>
+    <row r="3" ht="15" customHeight="1" s="3"/>
+    <row r="4" ht="15" customHeight="1" s="3"/>
+    <row r="5" ht="15" customHeight="1" s="3"/>
+    <row r="6" ht="15" customHeight="1" s="3"/>
+    <row r="7" ht="15" customHeight="1" s="3"/>
+    <row r="8" ht="15" customHeight="1" s="3"/>
+    <row r="9" ht="15" customHeight="1" s="3"/>
+    <row r="10" ht="15" customHeight="1" s="3"/>
+    <row r="11" ht="15" customHeight="1" s="3"/>
+    <row r="12" ht="15" customHeight="1" s="3"/>
+    <row r="13" ht="15" customHeight="1" s="3"/>
+    <row r="14" ht="15" customHeight="1" s="3"/>
+    <row r="15" ht="15" customHeight="1" s="3"/>
+    <row r="16" ht="15" customHeight="1" s="3"/>
+    <row r="17" ht="15" customHeight="1" s="3"/>
+    <row r="18" ht="15" customHeight="1" s="3"/>
+    <row r="19" ht="15" customHeight="1" s="3"/>
+    <row r="20" ht="15" customHeight="1" s="3"/>
+    <row r="21" ht="15" customHeight="1" s="3"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -460,22 +460,77 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.55" customHeight="1" s="3">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3"/>
-    <row r="3" ht="15" customHeight="1" s="3"/>
-    <row r="4" ht="15" customHeight="1" s="3"/>
-    <row r="5" ht="15" customHeight="1" s="3"/>
-    <row r="6" ht="15" customHeight="1" s="3"/>
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
     <row r="7" ht="15" customHeight="1" s="3"/>
     <row r="8" ht="15" customHeight="1" s="3"/>
     <row r="9" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -503,34 +503,23 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
+    <row r="6" ht="15" customHeight="1" s="3"/>
     <row r="7" ht="15" customHeight="1" s="3"/>
     <row r="8" ht="15" customHeight="1" s="3"/>
     <row r="9" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -460,65 +460,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.55" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" ht="15" customHeight="1" s="3"/>
+    <row r="3" ht="15" customHeight="1" s="3"/>
+    <row r="4" ht="15" customHeight="1" s="3"/>
+    <row r="5" ht="15" customHeight="1" s="3"/>
     <row r="6" ht="15" customHeight="1" s="3"/>
     <row r="7" ht="15" customHeight="1" s="3"/>
     <row r="8" ht="15" customHeight="1" s="3"/>
